--- a/docs/SprintPlanning.xlsx
+++ b/docs/SprintPlanning.xlsx
@@ -1,22 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32758165-644B-44BF-9697-D16C81B2C254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="SPRINT PLANNING" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="BACKLOG" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="SPRINT 1" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="SPRINT 2" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="SPRINT 3" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="LISTAS" sheetId="6" r:id="rId9"/>
+    <sheet name="SPRINT PLANNING" sheetId="1" r:id="rId1"/>
+    <sheet name="BACKLOG" sheetId="2" r:id="rId2"/>
+    <sheet name="SPRINT 1" sheetId="3" r:id="rId3"/>
+    <sheet name="SPRINT 2" sheetId="4" r:id="rId4"/>
+    <sheet name="SPRINT 3" sheetId="5" r:id="rId5"/>
+    <sheet name="LISTAS" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">BACKLOG!$A$1:$I$1</definedName>
-    <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">'SPRINT 1'!$A$1:$K$2</definedName>
-    <definedName hidden="1" localSheetId="3" name="_xlnm._FilterDatabase">'SPRINT 2'!$A$1:$K$2</definedName>
-    <definedName hidden="1" localSheetId="4" name="_xlnm._FilterDatabase">'SPRINT 3'!$A$1:$K$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">BACKLOG!$A$1:$I$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'SPRINT 1'!$A$1:$K$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'SPRINT 2'!$A$1:$K$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'SPRINT 3'!$A$1:$K$2</definedName>
   </definedNames>
-  <calcPr/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId10" roundtripDataChecksum="/nLL7i+FQI23yl72LQtNKjM8xLF1UE46mWCU6natKTs="/>
@@ -318,73 +328,77 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="13">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="24.0"/>
+      <sz val="24"/>
       <color theme="1"/>
       <name val="Overlock"/>
     </font>
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF1155CC"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
@@ -395,7 +409,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -447,7 +461,13 @@
     </fill>
   </fills>
   <borders count="17">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -458,27 +478,39 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -487,45 +519,65 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -535,6 +587,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -549,6 +602,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -557,173 +611,157 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+  <cellXfs count="56">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="13" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="14" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="15" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf quotePrefix="1" borderId="12" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="9" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="12" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="12" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="2" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="12" fillId="3" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="12" fillId="4" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="12" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="14" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="12" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="12" fillId="5" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="12" fillId="6" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="12" fillId="4" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="10" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="12" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="10" numFmtId="14" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="12" fillId="0" fontId="10" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="10" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="16" fillId="8" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="16" fillId="9" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -734,11 +772,17 @@
     <xdr:ext cx="952500" cy="990600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg" title="Image"/>
+        <xdr:cNvPr id="2" name="image1.jpg" title="Image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -755,28 +799,8 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -966,218 +990,224 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="14.29"/>
-    <col customWidth="1" min="2" max="2" width="12.29"/>
-    <col customWidth="1" min="3" max="3" width="11.14"/>
-    <col customWidth="1" min="4" max="4" width="25.57"/>
-    <col customWidth="1" min="5" max="5" width="7.43"/>
-    <col customWidth="1" min="6" max="6" width="13.29"/>
-    <col customWidth="1" min="7" max="7" width="26.14"/>
-    <col customWidth="1" min="8" max="26" width="11.43"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" customWidth="1"/>
+    <col min="4" max="4" width="25.5546875" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="8" max="26" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:7" ht="14.4">
+      <c r="A1" s="38"/>
+      <c r="B1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="5">
-        <v>1978572.0</v>
-      </c>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="10"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="11" t="s">
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="50">
+        <v>1978572</v>
+      </c>
+      <c r="G1" s="43"/>
+    </row>
+    <row r="2" spans="1:7" ht="14.4">
+      <c r="A2" s="39"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="49"/>
+    </row>
+    <row r="3" spans="1:7" ht="14.4">
+      <c r="A3" s="39"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="12"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="13" t="s">
+      <c r="G3" s="52"/>
+    </row>
+    <row r="4" spans="1:7" ht="14.4">
+      <c r="A4" s="39"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="15"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="13" t="s">
+    <row r="5" spans="1:7" ht="14.4">
+      <c r="A5" s="40"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="13"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="17" t="s">
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" ht="14.4">
+      <c r="A6" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="18" t="s">
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="18">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="19" t="s">
+      <c r="G6" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="14.4">
+      <c r="A7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="12"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="15"/>
-      <c r="B8" s="21" t="s">
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="52"/>
+    </row>
+    <row r="8" spans="1:7" ht="28.8">
+      <c r="A8" s="40"/>
+      <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="G8" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="13" t="s">
+    <row r="9" spans="1:7" ht="14.4">
+      <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="23">
-        <v>45618.0</v>
-      </c>
-      <c r="C9" s="23">
-        <v>45625.0</v>
-      </c>
-      <c r="D9" s="24" t="s">
+      <c r="B9" s="6">
+        <v>45618</v>
+      </c>
+      <c r="C9" s="6">
+        <v>45625</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="13">
-        <v>8.0</v>
-      </c>
-      <c r="F9" s="25">
-        <v>8.0</v>
-      </c>
-      <c r="G9" s="26">
-        <f t="shared" ref="G9:G11" si="1">(F9/E9)</f>
+      <c r="E9" s="1">
+        <v>8</v>
+      </c>
+      <c r="F9" s="1">
+        <v>8</v>
+      </c>
+      <c r="G9" s="8">
+        <f t="shared" ref="G9:G11" si="0">(F9/E9)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="13" t="s">
+    <row r="10" spans="1:7" ht="14.4">
+      <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="23">
-        <v>45625.0</v>
-      </c>
-      <c r="C10" s="23">
-        <v>45631.0</v>
-      </c>
-      <c r="D10" s="27" t="s">
+      <c r="B10" s="6">
+        <v>45625</v>
+      </c>
+      <c r="C10" s="6">
+        <v>45631</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="25">
-        <v>6.0</v>
-      </c>
-      <c r="F10" s="25">
-        <v>3.0</v>
-      </c>
-      <c r="G10" s="26">
-        <f t="shared" si="1"/>
+      <c r="E10" s="1">
+        <v>6</v>
+      </c>
+      <c r="F10" s="1">
+        <v>3</v>
+      </c>
+      <c r="G10" s="8">
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="13" t="s">
+    <row r="11" spans="1:7" ht="14.4">
+      <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="23">
-        <v>45631.0</v>
-      </c>
-      <c r="C11" s="28">
-        <v>45638.0</v>
-      </c>
-      <c r="D11" s="29" t="s">
+      <c r="B11" s="6">
+        <v>45631</v>
+      </c>
+      <c r="C11" s="6">
+        <v>45638</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="25">
-        <v>3.0</v>
-      </c>
-      <c r="F11" s="25">
-        <v>0.0</v>
-      </c>
-      <c r="G11" s="26">
-        <f t="shared" si="1"/>
+      <c r="E11" s="1">
+        <v>3</v>
+      </c>
+      <c r="F11" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="30"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="30"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
+      <c r="G11" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="14.4">
+      <c r="A12" s="11"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+    </row>
+    <row r="13" spans="1:7" ht="14.4">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
@@ -2161,676 +2191,675 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:G7"/>
     <mergeCell ref="A1:A5"/>
     <mergeCell ref="B1:E5"/>
     <mergeCell ref="F1:G2"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:G7"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="G4"/>
-    <hyperlink display="SPRINT 1" location="'SPRINT 1'!A1" ref="D9"/>
-    <hyperlink display="SPRINT 2" location="'SPRINT 2'!A1" ref="D10"/>
-    <hyperlink display="SPRINT 3" location="'SPRINT 3'!A1" ref="D11"/>
+    <hyperlink ref="G4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D9" location="'SPRINT 1'!A1" display="SPRINT 1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D10" location="'SPRINT 2'!A1" display="SPRINT 2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D11" location="'SPRINT 3'!A1" display="SPRINT 3" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="15.14"/>
-    <col customWidth="1" min="2" max="2" width="38.43"/>
-    <col customWidth="1" min="3" max="3" width="63.43"/>
-    <col customWidth="1" min="4" max="4" width="22.86"/>
-    <col customWidth="1" min="5" max="6" width="11.43"/>
-    <col customWidth="1" min="7" max="7" width="16.14"/>
-    <col customWidth="1" min="8" max="8" width="16.43"/>
-    <col customWidth="1" min="9" max="9" width="57.14"/>
-    <col customWidth="1" min="10" max="26" width="11.43"/>
+    <col min="1" max="1" width="15.109375" customWidth="1"/>
+    <col min="2" max="2" width="38.44140625" customWidth="1"/>
+    <col min="3" max="3" width="63.44140625" customWidth="1"/>
+    <col min="4" max="4" width="22.88671875" customWidth="1"/>
+    <col min="5" max="6" width="11.44140625" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" customWidth="1"/>
+    <col min="8" max="8" width="16.44140625" customWidth="1"/>
+    <col min="9" max="9" width="57.109375" customWidth="1"/>
+    <col min="10" max="26" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:11" ht="14.4">
+      <c r="A1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="H1" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="I1" s="14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="34" t="s">
+    <row r="2" spans="1:11" ht="14.4">
+      <c r="A2" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="F2" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="34">
-        <v>1.0</v>
-      </c>
-      <c r="H2" s="34" t="s">
+      <c r="G2" s="15">
+        <v>1</v>
+      </c>
+      <c r="H2" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="38" t="s">
+      <c r="I2" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="34" t="s">
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+    </row>
+    <row r="3" spans="1:11" ht="14.4">
+      <c r="A3" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="40" t="s">
+      <c r="F3" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="34">
-        <v>3.0</v>
-      </c>
-      <c r="H3" s="34" t="s">
+      <c r="G3" s="15">
+        <v>3</v>
+      </c>
+      <c r="H3" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="41" t="s">
+      <c r="I3" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="34" t="s">
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4">
+      <c r="A4" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="36" t="s">
+      <c r="E4" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="40" t="s">
+      <c r="F4" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="34">
-        <v>2.0</v>
-      </c>
-      <c r="H4" s="34" t="s">
+      <c r="G4" s="15">
+        <v>2</v>
+      </c>
+      <c r="H4" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="41" t="s">
+      <c r="I4" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="34" t="s">
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+    </row>
+    <row r="5" spans="1:11" ht="14.4">
+      <c r="A5" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="36" t="s">
+      <c r="E5" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="40" t="s">
+      <c r="F5" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="34">
-        <v>2.0</v>
-      </c>
-      <c r="H5" s="34" t="s">
+      <c r="G5" s="15">
+        <v>2</v>
+      </c>
+      <c r="H5" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="41" t="s">
+      <c r="I5" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="34" t="s">
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+    </row>
+    <row r="6" spans="1:11" ht="14.4">
+      <c r="A6" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="36" t="s">
+      <c r="E6" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="40" t="s">
+      <c r="F6" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="34">
-        <v>2.0</v>
-      </c>
-      <c r="H6" s="34" t="s">
+      <c r="G6" s="15">
+        <v>2</v>
+      </c>
+      <c r="H6" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="I6" s="41" t="s">
+      <c r="I6" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="34" t="s">
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+    </row>
+    <row r="7" spans="1:11" ht="14.4">
+      <c r="A7" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="40" t="s">
+      <c r="F7" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="34">
-        <v>1.0</v>
-      </c>
-      <c r="H7" s="34" t="s">
+      <c r="G7" s="15">
+        <v>1</v>
+      </c>
+      <c r="H7" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="I7" s="41" t="s">
+      <c r="I7" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="34" t="s">
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+    </row>
+    <row r="8" spans="1:11" ht="14.4">
+      <c r="A8" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="36" t="s">
+      <c r="E8" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="40" t="s">
+      <c r="F8" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="34">
-        <v>2.0</v>
-      </c>
-      <c r="H8" s="34" t="s">
+      <c r="G8" s="15">
+        <v>2</v>
+      </c>
+      <c r="H8" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="I8" s="38" t="s">
+      <c r="I8" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="34" t="s">
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+    </row>
+    <row r="9" spans="1:11" ht="14.4">
+      <c r="A9" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="36" t="s">
+      <c r="E9" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="40" t="s">
+      <c r="F9" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="34">
-        <v>1.0</v>
-      </c>
-      <c r="H9" s="34" t="s">
+      <c r="G9" s="15">
+        <v>1</v>
+      </c>
+      <c r="H9" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="I9" s="38" t="s">
+      <c r="I9" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="J9" s="39"/>
-      <c r="K9" s="43"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="38" t="s">
+      <c r="J9" s="19"/>
+      <c r="K9" s="22"/>
+    </row>
+    <row r="10" spans="1:11" ht="14.4">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+    </row>
+    <row r="11" spans="1:11" ht="14.4">
+      <c r="A11" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="38" t="s">
+      <c r="C11" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="35" t="s">
+      <c r="D11" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="47" t="s">
+      <c r="E11" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="40" t="s">
+      <c r="F11" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="34">
-        <v>1.0</v>
-      </c>
-      <c r="H11" s="38" t="s">
+      <c r="G11" s="15">
+        <v>1</v>
+      </c>
+      <c r="H11" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="I11" s="41" t="s">
+      <c r="I11" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="J11" s="48"/>
-      <c r="K11" s="39"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="38" t="s">
+      <c r="J11" s="26"/>
+      <c r="K11" s="19"/>
+    </row>
+    <row r="12" spans="1:11" ht="14.4">
+      <c r="A12" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="38" t="s">
+      <c r="C12" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="35" t="s">
+      <c r="D12" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="36" t="s">
+      <c r="E12" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="40" t="s">
+      <c r="F12" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="34">
-        <v>3.0</v>
-      </c>
-      <c r="H12" s="34" t="s">
+      <c r="G12" s="15">
+        <v>3</v>
+      </c>
+      <c r="H12" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="I12" s="38" t="s">
+      <c r="I12" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="J12" s="48"/>
-      <c r="K12" s="49"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="38" t="s">
+      <c r="J12" s="26"/>
+      <c r="K12" s="19"/>
+    </row>
+    <row r="13" spans="1:11" ht="14.4">
+      <c r="A13" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="38" t="s">
+      <c r="C13" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="35" t="s">
+      <c r="D13" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="36" t="s">
+      <c r="E13" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="40" t="s">
+      <c r="F13" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="38">
-        <v>1.0</v>
-      </c>
-      <c r="H13" s="38" t="s">
+      <c r="G13" s="15">
+        <v>1</v>
+      </c>
+      <c r="H13" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="I13" s="38" t="s">
+      <c r="I13" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="J13" s="48"/>
-      <c r="K13" s="49"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="38" t="s">
+      <c r="J13" s="26"/>
+      <c r="K13" s="19"/>
+    </row>
+    <row r="14" spans="1:11" ht="14.4">
+      <c r="A14" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B14" s="50" t="s">
+      <c r="B14" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="C14" s="38" t="s">
+      <c r="C14" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="D14" s="35" t="s">
+      <c r="D14" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="36" t="s">
+      <c r="E14" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="40" t="s">
+      <c r="F14" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G14" s="38">
-        <v>3.0</v>
-      </c>
-      <c r="H14" s="34" t="s">
+      <c r="G14" s="15">
+        <v>3</v>
+      </c>
+      <c r="H14" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="I14" s="41" t="s">
+      <c r="I14" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="J14" s="48"/>
-      <c r="K14" s="49"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="38" t="s">
+      <c r="J14" s="26"/>
+      <c r="K14" s="19"/>
+    </row>
+    <row r="15" spans="1:11" ht="14.4">
+      <c r="A15" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="C15" s="38" t="s">
+      <c r="C15" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D15" s="35" t="s">
+      <c r="D15" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="47" t="s">
+      <c r="E15" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="40" t="s">
+      <c r="F15" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G15" s="34">
-        <v>2.0</v>
-      </c>
-      <c r="H15" s="38" t="s">
+      <c r="G15" s="15">
+        <v>2</v>
+      </c>
+      <c r="H15" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="I15" s="41" t="s">
+      <c r="I15" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="J15" s="48"/>
-      <c r="K15" s="49"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="38" t="s">
+      <c r="J15" s="26"/>
+      <c r="K15" s="19"/>
+    </row>
+    <row r="16" spans="1:11" ht="14.4">
+      <c r="A16" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="C16" s="38" t="s">
+      <c r="C16" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="D16" s="35" t="s">
+      <c r="D16" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="47" t="s">
+      <c r="E16" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="40" t="s">
+      <c r="F16" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G16" s="38">
-        <v>2.0</v>
-      </c>
-      <c r="H16" s="34" t="s">
+      <c r="G16" s="15">
+        <v>2</v>
+      </c>
+      <c r="H16" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="I16" s="41" t="s">
+      <c r="I16" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="J16" s="48"/>
-      <c r="K16" s="49"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="38" t="s">
+      <c r="J16" s="26"/>
+      <c r="K16" s="19"/>
+    </row>
+    <row r="17" spans="1:11" ht="14.4">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+    </row>
+    <row r="18" spans="1:11" ht="14.4">
+      <c r="A18" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="38" t="s">
+      <c r="C18" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="D18" s="35" t="s">
+      <c r="D18" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="36" t="s">
+      <c r="E18" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F18" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="G18" s="38">
-        <v>3.0</v>
-      </c>
-      <c r="H18" s="38" t="s">
+      <c r="F18" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="15">
+        <v>3</v>
+      </c>
+      <c r="H18" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="I18" s="13"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="38" t="s">
+      <c r="I18" s="1"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+    </row>
+    <row r="19" spans="1:11" ht="14.4">
+      <c r="A19" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="C19" s="38" t="s">
+      <c r="C19" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D19" s="35" t="s">
+      <c r="D19" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="47" t="s">
+      <c r="E19" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F19" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="G19" s="34">
-        <v>2.0</v>
-      </c>
-      <c r="H19" s="38" t="s">
+      <c r="F19" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="15">
+        <v>2</v>
+      </c>
+      <c r="H19" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="I19" s="13"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="38" t="s">
+      <c r="I19" s="1"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+    </row>
+    <row r="20" spans="1:11" ht="14.4">
+      <c r="A20" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="B20" s="38" t="s">
+      <c r="B20" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="C20" s="38" t="s">
+      <c r="C20" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="D20" s="35" t="s">
+      <c r="D20" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="47" t="s">
+      <c r="E20" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F20" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="G20" s="38">
-        <v>2.0</v>
-      </c>
-      <c r="H20" s="34" t="s">
+      <c r="F20" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="15">
+        <v>2</v>
+      </c>
+      <c r="H20" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="I20" s="13"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="38" t="s">
+      <c r="I20" s="1"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A21" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="B21" s="38" t="s">
+      <c r="B21" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="C21" s="38" t="s">
+      <c r="C21" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="D21" s="51" t="s">
+      <c r="D21" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="47" t="s">
+      <c r="E21" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F21" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="G21" s="38">
-        <v>6.0</v>
-      </c>
-      <c r="H21" s="38" t="s">
+      <c r="F21" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" s="15">
+        <v>6</v>
+      </c>
+      <c r="H21" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="I21" s="13"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-    </row>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" customHeight="1"/>
+    <row r="24" spans="1:11" ht="15.75" customHeight="1"/>
+    <row r="25" spans="1:11" ht="15.75" customHeight="1"/>
+    <row r="26" spans="1:11" ht="15.75" customHeight="1"/>
+    <row r="27" spans="1:11" ht="15.75" customHeight="1"/>
+    <row r="28" spans="1:11" ht="15.75" customHeight="1"/>
+    <row r="29" spans="1:11" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:11" ht="15.75" customHeight="1"/>
+    <row r="31" spans="1:11" ht="15.75" customHeight="1"/>
+    <row r="32" spans="1:11" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -3800,554 +3829,566 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="$A$1:$I$1"/>
-  <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H2:H22">
-      <formula1>LISTAS!$D$2:$D$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E22">
-      <formula1>LISTAS!$B$2:$B$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D22">
-      <formula1>LISTAS!$A$2:$A$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:F22">
-      <formula1>LISTAS!$C$2:$C$4</formula1>
-    </dataValidation>
-  </dataValidations>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <autoFilter ref="A1:I1" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
+          <x14:formula1>
+            <xm:f>LISTAS!$D$2:$D$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>H2:H22</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
+          <x14:formula1>
+            <xm:f>LISTAS!$B$2:$B$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>E2:E22</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
+          <x14:formula1>
+            <xm:f>LISTAS!$A$2:$A$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:D22</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000003000000}">
+          <x14:formula1>
+            <xm:f>LISTAS!$C$2:$C$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>F2:F22</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:K1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="13.0"/>
-    <col customWidth="1" min="2" max="2" width="38.86"/>
-    <col customWidth="1" min="3" max="3" width="56.71"/>
-    <col customWidth="1" min="4" max="4" width="22.29"/>
-    <col customWidth="1" min="5" max="6" width="11.43"/>
-    <col customWidth="1" min="7" max="7" width="17.14"/>
-    <col customWidth="1" min="8" max="8" width="13.86"/>
-    <col customWidth="1" min="9" max="26" width="11.43"/>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="56.6640625" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" customWidth="1"/>
+    <col min="5" max="6" width="11.44140625" customWidth="1"/>
+    <col min="7" max="7" width="17.109375" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" customWidth="1"/>
+    <col min="9" max="26" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30.0" customHeight="1">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:11" ht="30" customHeight="1">
+      <c r="A1" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="52" t="s">
+      <c r="E1" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="52" t="s">
+      <c r="F1" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="52" t="s">
+      <c r="G1" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="52" t="s">
+      <c r="H1" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="52" t="s">
+      <c r="I1" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="J1" s="53" t="s">
+      <c r="J1" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="K1" s="53" t="s">
+      <c r="K1" s="29" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="2" ht="34.5" customHeight="1">
-      <c r="A2" s="54"/>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="34" t="s">
+    <row r="2" spans="1:11" ht="34.5" customHeight="1">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+    </row>
+    <row r="3" spans="1:11" ht="14.4">
+      <c r="A3" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="34">
-        <v>1.0</v>
-      </c>
-      <c r="H3" s="34" t="s">
+      <c r="G3" s="15">
+        <v>1</v>
+      </c>
+      <c r="H3" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="34">
-        <v>100.0</v>
-      </c>
-      <c r="J3" s="56">
-        <v>45622.0</v>
-      </c>
-      <c r="K3" s="56">
-        <v>45621.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="34" t="s">
+      <c r="I3" s="15">
+        <v>100</v>
+      </c>
+      <c r="J3" s="32">
+        <v>45622</v>
+      </c>
+      <c r="K3" s="32">
+        <v>45621</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="14.4">
+      <c r="A4" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="36" t="s">
+      <c r="E4" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="40" t="s">
+      <c r="F4" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="34">
-        <v>3.0</v>
-      </c>
-      <c r="H4" s="34" t="s">
+      <c r="G4" s="15">
+        <v>3</v>
+      </c>
+      <c r="H4" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="34">
-        <v>100.0</v>
-      </c>
-      <c r="J4" s="56">
-        <v>45625.0</v>
-      </c>
-      <c r="K4" s="57">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="34" t="s">
+      <c r="I4" s="15">
+        <v>100</v>
+      </c>
+      <c r="J4" s="32">
+        <v>45625</v>
+      </c>
+      <c r="K4" s="32">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="14.4">
+      <c r="A5" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="36" t="s">
+      <c r="E5" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="40" t="s">
+      <c r="F5" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="34">
-        <v>2.0</v>
-      </c>
-      <c r="H5" s="34" t="s">
+      <c r="G5" s="15">
+        <v>2</v>
+      </c>
+      <c r="H5" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="34">
-        <v>100.0</v>
-      </c>
-      <c r="J5" s="56">
-        <v>45625.0</v>
-      </c>
-      <c r="K5" s="57">
-        <v>45624.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="34" t="s">
+      <c r="I5" s="15">
+        <v>100</v>
+      </c>
+      <c r="J5" s="32">
+        <v>45625</v>
+      </c>
+      <c r="K5" s="32">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="14.4">
+      <c r="A6" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="36" t="s">
+      <c r="E6" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="40" t="s">
+      <c r="F6" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="34">
-        <v>2.0</v>
-      </c>
-      <c r="H6" s="34" t="s">
+      <c r="G6" s="15">
+        <v>2</v>
+      </c>
+      <c r="H6" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="I6" s="34">
-        <v>100.0</v>
-      </c>
-      <c r="J6" s="56">
-        <v>45625.0</v>
-      </c>
-      <c r="K6" s="57">
-        <v>45624.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="34" t="s">
+      <c r="I6" s="15">
+        <v>100</v>
+      </c>
+      <c r="J6" s="32">
+        <v>45625</v>
+      </c>
+      <c r="K6" s="32">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="14.4">
+      <c r="A7" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="40" t="s">
+      <c r="F7" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="34">
-        <v>2.0</v>
-      </c>
-      <c r="H7" s="34" t="s">
+      <c r="G7" s="15">
+        <v>2</v>
+      </c>
+      <c r="H7" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="34">
-        <v>100.0</v>
-      </c>
-      <c r="J7" s="56">
-        <v>45625.0</v>
-      </c>
-      <c r="K7" s="57">
-        <v>45625.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="34" t="s">
+      <c r="I7" s="15">
+        <v>100</v>
+      </c>
+      <c r="J7" s="32">
+        <v>45625</v>
+      </c>
+      <c r="K7" s="32">
+        <v>45625</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="14.4">
+      <c r="A8" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="36" t="s">
+      <c r="E8" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="40" t="s">
+      <c r="F8" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="34">
-        <v>1.0</v>
-      </c>
-      <c r="H8" s="34" t="s">
+      <c r="G8" s="15">
+        <v>1</v>
+      </c>
+      <c r="H8" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="I8" s="34">
-        <v>100.0</v>
-      </c>
-      <c r="J8" s="56">
-        <v>45625.0</v>
-      </c>
-      <c r="K8" s="57">
-        <v>45625.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="34" t="s">
+      <c r="I8" s="15">
+        <v>100</v>
+      </c>
+      <c r="J8" s="32">
+        <v>45625</v>
+      </c>
+      <c r="K8" s="32">
+        <v>45625</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="14.4">
+      <c r="A9" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="36" t="s">
+      <c r="E9" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="40" t="s">
+      <c r="F9" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="34">
-        <v>2.0</v>
-      </c>
-      <c r="H9" s="34" t="s">
+      <c r="G9" s="15">
+        <v>2</v>
+      </c>
+      <c r="H9" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="I9" s="34">
-        <v>100.0</v>
-      </c>
-      <c r="J9" s="56">
-        <v>45625.0</v>
-      </c>
-      <c r="K9" s="57">
-        <v>45625.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="34" t="s">
+      <c r="I9" s="15">
+        <v>100</v>
+      </c>
+      <c r="J9" s="32">
+        <v>45625</v>
+      </c>
+      <c r="K9" s="32">
+        <v>45625</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="14.4">
+      <c r="A10" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="42" t="s">
+      <c r="C10" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="36" t="s">
+      <c r="E10" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="40" t="s">
+      <c r="F10" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="34">
-        <v>1.0</v>
-      </c>
-      <c r="H10" s="34" t="s">
+      <c r="G10" s="15">
+        <v>1</v>
+      </c>
+      <c r="H10" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="I10" s="34">
-        <v>100.0</v>
-      </c>
-      <c r="J10" s="56">
-        <v>45625.0</v>
-      </c>
-      <c r="K10" s="57">
-        <v>45623.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="34"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="58"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="34"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="58"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="34"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="58"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="34"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="58"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="34"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="58"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="34"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="58"/>
-      <c r="K16" s="58"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="34"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="34"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="59"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="34"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="34"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="59"/>
-      <c r="K20" s="59"/>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="34"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="59"/>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="34"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="59"/>
-      <c r="K22" s="59"/>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="34"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="59"/>
-      <c r="K23" s="59"/>
-    </row>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
+      <c r="I10" s="15">
+        <v>100</v>
+      </c>
+      <c r="J10" s="32">
+        <v>45625</v>
+      </c>
+      <c r="K10" s="32">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="14.4">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+    </row>
+    <row r="12" spans="1:11" ht="14.4">
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+    </row>
+    <row r="13" spans="1:11" ht="14.4">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+    </row>
+    <row r="14" spans="1:11" ht="14.4">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+    </row>
+    <row r="15" spans="1:11" ht="14.4">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+    </row>
+    <row r="16" spans="1:11" ht="14.4">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+    </row>
+    <row r="17" spans="1:11" ht="14.4">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+    </row>
+    <row r="18" spans="1:11" ht="14.4">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+    </row>
+    <row r="19" spans="1:11" ht="14.4">
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+    </row>
+    <row r="20" spans="1:11" ht="14.4">
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="34"/>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
+    </row>
+    <row r="24" spans="1:11" ht="15.75" customHeight="1"/>
+    <row r="25" spans="1:11" ht="15.75" customHeight="1"/>
+    <row r="26" spans="1:11" ht="15.75" customHeight="1"/>
+    <row r="27" spans="1:11" ht="15.75" customHeight="1"/>
+    <row r="28" spans="1:11" ht="15.75" customHeight="1"/>
+    <row r="29" spans="1:11" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:11" ht="15.75" customHeight="1"/>
+    <row r="31" spans="1:11" ht="15.75" customHeight="1"/>
+    <row r="32" spans="1:11" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -5317,504 +5358,518 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="$A$1:$K$2"/>
-  <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H2:H22">
-      <formula1>LISTAS!$D$2:$D$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E22">
-      <formula1>LISTAS!$B$2:$B$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D22">
-      <formula1>LISTAS!$A$2:$A$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:F22">
-      <formula1>LISTAS!$C$2:$C$4</formula1>
-    </dataValidation>
-  </dataValidations>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <autoFilter ref="A1:K2" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000000000000}">
+          <x14:formula1>
+            <xm:f>LISTAS!$D$2:$D$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>H2:H22</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
+          <x14:formula1>
+            <xm:f>LISTAS!$B$2:$B$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>E2:E22</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000002000000}">
+          <x14:formula1>
+            <xm:f>LISTAS!$A$2:$A$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:D22</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000003000000}">
+          <x14:formula1>
+            <xm:f>LISTAS!$C$2:$C$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>F2:F22</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="13.0"/>
-    <col customWidth="1" min="2" max="2" width="38.86"/>
-    <col customWidth="1" min="3" max="3" width="63.71"/>
-    <col customWidth="1" min="4" max="4" width="22.29"/>
-    <col customWidth="1" min="5" max="6" width="11.43"/>
-    <col customWidth="1" min="7" max="7" width="17.14"/>
-    <col customWidth="1" min="8" max="8" width="13.86"/>
-    <col customWidth="1" min="9" max="26" width="11.43"/>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="63.6640625" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" customWidth="1"/>
+    <col min="5" max="6" width="11.44140625" customWidth="1"/>
+    <col min="7" max="7" width="17.109375" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" customWidth="1"/>
+    <col min="9" max="26" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30.0" customHeight="1">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:11" ht="30" customHeight="1">
+      <c r="A1" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="52" t="s">
+      <c r="E1" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="52" t="s">
+      <c r="F1" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="52" t="s">
+      <c r="G1" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="52" t="s">
+      <c r="H1" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="52" t="s">
+      <c r="I1" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="J1" s="53" t="s">
+      <c r="J1" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="K1" s="53" t="s">
+      <c r="K1" s="29" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="2" ht="34.5" customHeight="1">
-      <c r="A2" s="54"/>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="38" t="s">
+    <row r="2" spans="1:11" ht="34.5" customHeight="1">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+    </row>
+    <row r="3" spans="1:11" ht="14.4">
+      <c r="A3" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="47" t="s">
+      <c r="E3" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="40" t="s">
+      <c r="F3" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="34">
-        <v>1.0</v>
-      </c>
-      <c r="H3" s="38" t="s">
+      <c r="G3" s="15">
+        <v>1</v>
+      </c>
+      <c r="H3" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="34">
-        <v>100.0</v>
-      </c>
-      <c r="J3" s="57">
-        <v>45632.0</v>
-      </c>
-      <c r="K3" s="57">
-        <v>45628.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="38" t="s">
+      <c r="I3" s="15">
+        <v>100</v>
+      </c>
+      <c r="J3" s="32">
+        <v>45632</v>
+      </c>
+      <c r="K3" s="32">
+        <v>45628</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="14.4">
+      <c r="A4" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="36" t="s">
+      <c r="E4" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="40" t="s">
+      <c r="F4" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="34">
-        <v>3.0</v>
-      </c>
-      <c r="H4" s="34" t="s">
+      <c r="G4" s="15">
+        <v>3</v>
+      </c>
+      <c r="H4" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="34">
-        <v>100.0</v>
-      </c>
-      <c r="J4" s="57">
-        <v>45632.0</v>
-      </c>
-      <c r="K4" s="57">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="38" t="s">
+      <c r="I4" s="15">
+        <v>100</v>
+      </c>
+      <c r="J4" s="32">
+        <v>45632</v>
+      </c>
+      <c r="K4" s="32">
+        <v>45627</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="14.4">
+      <c r="A5" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="36" t="s">
+      <c r="E5" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="40" t="s">
+      <c r="F5" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="38">
-        <v>1.0</v>
-      </c>
-      <c r="H5" s="38" t="s">
+      <c r="G5" s="15">
+        <v>1</v>
+      </c>
+      <c r="H5" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="I5" s="34">
-        <v>100.0</v>
-      </c>
-      <c r="J5" s="57">
-        <v>45632.0</v>
-      </c>
-      <c r="K5" s="57">
-        <v>45624.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="38" t="s">
+      <c r="I5" s="15">
+        <v>100</v>
+      </c>
+      <c r="J5" s="32">
+        <v>45632</v>
+      </c>
+      <c r="K5" s="32">
+        <v>45627</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="14.4">
+      <c r="A6" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="36" t="s">
+      <c r="E6" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="40" t="s">
+      <c r="F6" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G6" s="38">
-        <v>3.0</v>
-      </c>
-      <c r="H6" s="34" t="s">
+      <c r="G6" s="15">
+        <v>3</v>
+      </c>
+      <c r="H6" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="I6" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="J6" s="57">
-        <v>45632.0</v>
-      </c>
-      <c r="K6" s="38"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="38" t="s">
+      <c r="I6" s="15">
+        <v>0</v>
+      </c>
+      <c r="J6" s="32">
+        <v>45632</v>
+      </c>
+      <c r="K6" s="15"/>
+    </row>
+    <row r="7" spans="1:11" ht="14.4">
+      <c r="A7" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="47" t="s">
+      <c r="E7" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="40" t="s">
+      <c r="F7" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G7" s="34">
-        <v>2.0</v>
-      </c>
-      <c r="H7" s="38" t="s">
+      <c r="G7" s="15">
+        <v>2</v>
+      </c>
+      <c r="H7" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="I7" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="J7" s="57">
-        <v>45632.0</v>
-      </c>
-      <c r="K7" s="57"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="38" t="s">
+      <c r="I7" s="15">
+        <v>0</v>
+      </c>
+      <c r="J7" s="32">
+        <v>45632</v>
+      </c>
+      <c r="K7" s="32"/>
+    </row>
+    <row r="8" spans="1:11" ht="14.4">
+      <c r="A8" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="47" t="s">
+      <c r="E8" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="40" t="s">
+      <c r="F8" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G8" s="38">
-        <v>2.0</v>
-      </c>
-      <c r="H8" s="34" t="s">
+      <c r="G8" s="15">
+        <v>2</v>
+      </c>
+      <c r="H8" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="I8" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="J8" s="57">
-        <v>45632.0</v>
-      </c>
-      <c r="K8" s="57"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="38"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="38"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="57"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="34"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="58"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="34"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="58"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="34"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="58"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="34"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="58"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="34"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="58"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="34"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="58"/>
-      <c r="K16" s="58"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="34"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="34"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="59"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="34"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="34"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="59"/>
-      <c r="K20" s="59"/>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="34"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="59"/>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="34"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="59"/>
-      <c r="K22" s="59"/>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="34"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="59"/>
-      <c r="K23" s="59"/>
-    </row>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
+      <c r="I8" s="15">
+        <v>0</v>
+      </c>
+      <c r="J8" s="32">
+        <v>45632</v>
+      </c>
+      <c r="K8" s="32"/>
+    </row>
+    <row r="9" spans="1:11" ht="14.4">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+    </row>
+    <row r="10" spans="1:11" ht="14.4">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+    </row>
+    <row r="11" spans="1:11" ht="14.4">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+    </row>
+    <row r="12" spans="1:11" ht="14.4">
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+    </row>
+    <row r="13" spans="1:11" ht="14.4">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+    </row>
+    <row r="14" spans="1:11" ht="14.4">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+    </row>
+    <row r="15" spans="1:11" ht="14.4">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+    </row>
+    <row r="16" spans="1:11" ht="14.4">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+    </row>
+    <row r="17" spans="1:11" ht="14.4">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+    </row>
+    <row r="18" spans="1:11" ht="14.4">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+    </row>
+    <row r="19" spans="1:11" ht="14.4">
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+    </row>
+    <row r="20" spans="1:11" ht="14.4">
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="34"/>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
+    </row>
+    <row r="24" spans="1:11" ht="15.75" customHeight="1"/>
+    <row r="25" spans="1:11" ht="15.75" customHeight="1"/>
+    <row r="26" spans="1:11" ht="15.75" customHeight="1"/>
+    <row r="27" spans="1:11" ht="15.75" customHeight="1"/>
+    <row r="28" spans="1:11" ht="15.75" customHeight="1"/>
+    <row r="29" spans="1:11" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:11" ht="15.75" customHeight="1"/>
+    <row r="31" spans="1:11" ht="15.75" customHeight="1"/>
+    <row r="32" spans="1:11" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -6784,466 +6839,480 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="$A$1:$K$2"/>
-  <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H2:H22">
-      <formula1>LISTAS!$D$2:$D$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E22">
-      <formula1>LISTAS!$B$2:$B$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D22">
-      <formula1>LISTAS!$A$2:$A$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:F22">
-      <formula1>LISTAS!$C$2:$C$4</formula1>
-    </dataValidation>
-  </dataValidations>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <autoFilter ref="A1:K2" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000000000000}">
+          <x14:formula1>
+            <xm:f>LISTAS!$D$2:$D$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>H2:H22</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000001000000}">
+          <x14:formula1>
+            <xm:f>LISTAS!$B$2:$B$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>E2:E22</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000002000000}">
+          <x14:formula1>
+            <xm:f>LISTAS!$A$2:$A$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:D22</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000003000000}">
+          <x14:formula1>
+            <xm:f>LISTAS!$C$2:$C$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>F2:F22</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="13.0"/>
-    <col customWidth="1" min="2" max="2" width="38.86"/>
-    <col customWidth="1" min="3" max="3" width="63.71"/>
-    <col customWidth="1" min="4" max="4" width="22.29"/>
-    <col customWidth="1" min="5" max="6" width="11.43"/>
-    <col customWidth="1" min="7" max="7" width="17.14"/>
-    <col customWidth="1" min="8" max="8" width="13.86"/>
-    <col customWidth="1" min="9" max="26" width="11.43"/>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="63.6640625" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" customWidth="1"/>
+    <col min="5" max="6" width="11.44140625" customWidth="1"/>
+    <col min="7" max="7" width="17.109375" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" customWidth="1"/>
+    <col min="9" max="26" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30.0" customHeight="1">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:11" ht="30" customHeight="1">
+      <c r="A1" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="52" t="s">
+      <c r="E1" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="52" t="s">
+      <c r="F1" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="52" t="s">
+      <c r="G1" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="52" t="s">
+      <c r="H1" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="52" t="s">
+      <c r="I1" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="J1" s="53" t="s">
+      <c r="J1" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="K1" s="53" t="s">
+      <c r="K1" s="29" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="2" ht="34.5" customHeight="1">
-      <c r="A2" s="54"/>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="38" t="s">
+    <row r="2" spans="1:11" ht="34.5" customHeight="1">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+    </row>
+    <row r="3" spans="1:11" ht="14.4">
+      <c r="A3" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="G3" s="38">
-        <v>2.0</v>
-      </c>
-      <c r="H3" s="38" t="s">
+      <c r="F3" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="15">
+        <v>2</v>
+      </c>
+      <c r="H3" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="34">
-        <v>100.0</v>
-      </c>
-      <c r="J3" s="57">
-        <v>45639.0</v>
-      </c>
-      <c r="K3" s="57">
-        <v>45624.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="38" t="s">
+      <c r="I3" s="15">
+        <v>100</v>
+      </c>
+      <c r="J3" s="32">
+        <v>45639</v>
+      </c>
+      <c r="K3" s="32">
+        <v>45637</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="14.4">
+      <c r="A4" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="47" t="s">
+      <c r="E4" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="G4" s="34">
-        <v>2.0</v>
-      </c>
-      <c r="H4" s="38" t="s">
+      <c r="F4" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="15">
+        <v>2</v>
+      </c>
+      <c r="H4" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="34">
-        <v>100.0</v>
-      </c>
-      <c r="J4" s="57">
-        <v>45639.0</v>
-      </c>
-      <c r="K4" s="57">
-        <v>45625.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="38" t="s">
+      <c r="I4" s="15">
+        <v>100</v>
+      </c>
+      <c r="J4" s="32">
+        <v>45639</v>
+      </c>
+      <c r="K4" s="32">
+        <v>45637</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="14.4">
+      <c r="A5" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="47" t="s">
+      <c r="E5" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="G5" s="38">
-        <v>4.0</v>
-      </c>
-      <c r="H5" s="34" t="s">
+      <c r="F5" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="15">
+        <v>4</v>
+      </c>
+      <c r="H5" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="I5" s="34">
-        <v>100.0</v>
-      </c>
-      <c r="J5" s="57">
-        <v>45639.0</v>
-      </c>
-      <c r="K5" s="57">
-        <v>45625.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="38" t="s">
+      <c r="I5" s="15">
+        <v>100</v>
+      </c>
+      <c r="J5" s="32">
+        <v>45639</v>
+      </c>
+      <c r="K5" s="32">
+        <v>45636</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="14.4">
+      <c r="A6" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="D6" s="51" t="s">
+      <c r="D6" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="47" t="s">
+      <c r="E6" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="G6" s="38">
-        <v>6.0</v>
-      </c>
-      <c r="H6" s="38" t="s">
+      <c r="F6" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="15">
+        <v>6</v>
+      </c>
+      <c r="H6" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="I6" s="38">
-        <v>100.0</v>
-      </c>
-      <c r="J6" s="57">
-        <v>45639.0</v>
-      </c>
-      <c r="K6" s="57">
-        <v>45625.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="38"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="57"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="34"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="58"/>
-      <c r="K8" s="58"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="38"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="38"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="57"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="34"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="58"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="34"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="58"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="34"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="58"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="34"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="58"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="34"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="58"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="34"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="58"/>
-      <c r="K16" s="58"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="34"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="34"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="59"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="34"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="34"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="59"/>
-      <c r="K20" s="59"/>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="34"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="59"/>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="34"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="59"/>
-      <c r="K22" s="59"/>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="34"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="59"/>
-      <c r="K23" s="59"/>
-    </row>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
+      <c r="I6" s="15">
+        <v>100</v>
+      </c>
+      <c r="J6" s="32">
+        <v>45639</v>
+      </c>
+      <c r="K6" s="32">
+        <v>45638</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="14.4">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+    </row>
+    <row r="8" spans="1:11" ht="14.4">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+    </row>
+    <row r="9" spans="1:11" ht="14.4">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+    </row>
+    <row r="10" spans="1:11" ht="14.4">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+    </row>
+    <row r="11" spans="1:11" ht="14.4">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+    </row>
+    <row r="12" spans="1:11" ht="14.4">
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+    </row>
+    <row r="13" spans="1:11" ht="14.4">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+    </row>
+    <row r="14" spans="1:11" ht="14.4">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+    </row>
+    <row r="15" spans="1:11" ht="14.4">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+    </row>
+    <row r="16" spans="1:11" ht="14.4">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+    </row>
+    <row r="17" spans="1:11" ht="14.4">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+    </row>
+    <row r="18" spans="1:11" ht="14.4">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+    </row>
+    <row r="19" spans="1:11" ht="14.4">
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+    </row>
+    <row r="20" spans="1:11" ht="14.4">
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="34"/>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
+    </row>
+    <row r="24" spans="1:11" ht="15.75" customHeight="1"/>
+    <row r="25" spans="1:11" ht="15.75" customHeight="1"/>
+    <row r="26" spans="1:11" ht="15.75" customHeight="1"/>
+    <row r="27" spans="1:11" ht="15.75" customHeight="1"/>
+    <row r="28" spans="1:11" ht="15.75" customHeight="1"/>
+    <row r="29" spans="1:11" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:11" ht="15.75" customHeight="1"/>
+    <row r="31" spans="1:11" ht="15.75" customHeight="1"/>
+    <row r="32" spans="1:11" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -8213,102 +8282,114 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="$A$1:$K$2"/>
-  <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H2:H22">
-      <formula1>LISTAS!$D$2:$D$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E22">
-      <formula1>LISTAS!$B$2:$B$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D22">
-      <formula1>LISTAS!$A$2:$A$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:F22">
-      <formula1>LISTAS!$C$2:$C$4</formula1>
-    </dataValidation>
-  </dataValidations>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <autoFilter ref="A1:K2" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000000000000}">
+          <x14:formula1>
+            <xm:f>LISTAS!$D$2:$D$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>H2:H22</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000001000000}">
+          <x14:formula1>
+            <xm:f>LISTAS!$B$2:$B$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>E2:E22</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000002000000}">
+          <x14:formula1>
+            <xm:f>LISTAS!$A$2:$A$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:D22</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000003000000}">
+          <x14:formula1>
+            <xm:f>LISTAS!$C$2:$C$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>F2:F22</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:D1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="21.14"/>
-    <col customWidth="1" min="2" max="3" width="11.43"/>
-    <col customWidth="1" min="4" max="4" width="14.57"/>
-    <col customWidth="1" min="5" max="26" width="11.43"/>
+    <col min="1" max="1" width="21.109375" customWidth="1"/>
+    <col min="2" max="3" width="11.44140625" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" customWidth="1"/>
+    <col min="5" max="26" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="60" t="s">
+    <row r="1" spans="1:4" ht="14.4">
+      <c r="A1" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="60" t="s">
+      <c r="D1" s="35" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="60" t="s">
+    <row r="2" spans="1:4" ht="14.4">
+      <c r="A2" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="60" t="s">
+      <c r="D2" s="35" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="60" t="s">
+    <row r="3" spans="1:4" ht="14.4">
+      <c r="A3" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="61" t="s">
+      <c r="C3" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="D3" s="60" t="s">
+      <c r="D3" s="35" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="60" t="s">
+    <row r="4" spans="1:4" ht="14.4">
+      <c r="A4" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="62" t="s">
+      <c r="C4" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="60" t="s">
+      <c r="D4" s="35" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5">
-      <c r="D5" s="60" t="s">
+    <row r="5" spans="1:4" ht="14.4">
+      <c r="D5" s="35" t="s">
         <v>33</v>
       </c>
     </row>
@@ -9293,9 +9374,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>